--- a/docs/conduit_T-07_uj adat bevitel_KRF.xlsx
+++ b/docs/conduit_T-07_uj adat bevitel_KRF.xlsx
@@ -265,16 +265,16 @@
     <t>Megjelenik a Post Comment gomb</t>
   </si>
   <si>
-    <t>Ellenőrzöm, hogy megjelenik a Edit Article gomb?</t>
-  </si>
-  <si>
-    <t>Megjelenik a Edit Article gomb</t>
-  </si>
-  <si>
     <t>Ellenőrzöm, hogy megjelenik a Delete Article gomb?</t>
   </si>
   <si>
     <t>Megjelenik a Delete Article gomb</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm, hogy megjelenik az Edit Article gomb?</t>
+  </si>
+  <si>
+    <t>Megjelenik az Edit Article gomb</t>
   </si>
 </sst>
 </file>
@@ -616,60 +616,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -678,29 +678,7 @@
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Normál 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -896,72 +874,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1332,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1351,59 +1263,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1419,25 +1331,25 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22">
+      <c r="E5" s="32"/>
+      <c r="F5" s="33">
         <v>44421</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1455,122 +1367,122 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="F7" s="24" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="F7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="I7" s="24" t="s">
+      <c r="G7" s="30"/>
+      <c r="I7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="G8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="G10" s="30"/>
+      <c r="I10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>5</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>6</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>7</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
@@ -1581,11 +1493,11 @@
       <c r="F15" s="9">
         <v>1</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="15" t="s">
         <v>65</v>
       </c>
@@ -1599,11 +1511,11 @@
       <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="15" t="s">
         <v>66</v>
       </c>
@@ -1617,11 +1529,11 @@
       <c r="F17" s="9">
         <v>3</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="15" t="s">
         <v>67</v>
       </c>
@@ -1635,11 +1547,11 @@
       <c r="F18" s="9">
         <v>4</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="15" t="s">
         <v>65</v>
       </c>
@@ -1651,9 +1563,9 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1669,51 +1581,51 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="31" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="23" t="s">
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="32" t="s">
+      <c r="J22" s="29"/>
+      <c r="K22" s="23" t="s">
         <v>16</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="32"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="23"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
@@ -1721,441 +1633,535 @@
       <c r="A24" s="11">
         <v>1</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16" t="s">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17" t="s">
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="17"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>2</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17" t="s">
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="17"/>
+      <c r="J25" s="19"/>
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>3</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16" t="s">
+      <c r="E26" s="18"/>
+      <c r="F26" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17" t="s">
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="17"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>4</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17" t="s">
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="17"/>
+      <c r="J27" s="19"/>
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>5</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17" t="s">
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="17"/>
+      <c r="J28" s="19"/>
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>6</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16" t="s">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17" t="s">
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="17"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>7</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16" t="s">
+      <c r="E30" s="18"/>
+      <c r="F30" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="17"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>8</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17" t="s">
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="17"/>
+      <c r="J31" s="19"/>
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>9</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16" t="s">
+      <c r="E32" s="18"/>
+      <c r="F32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17" t="s">
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="17"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>10</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16" t="s">
+      <c r="E33" s="18"/>
+      <c r="F33" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17" t="s">
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="17"/>
+      <c r="J33" s="19"/>
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>11</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16" t="s">
+      <c r="E34" s="18"/>
+      <c r="F34" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17" t="s">
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="17"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>12</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16" t="s">
+      <c r="C35" s="18"/>
+      <c r="D35" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16" t="s">
+      <c r="E35" s="18"/>
+      <c r="F35" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17" t="s">
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="17"/>
+      <c r="J35" s="19"/>
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>13</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16" t="s">
+      <c r="C36" s="18"/>
+      <c r="D36" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16" t="s">
+      <c r="E36" s="18"/>
+      <c r="F36" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17" t="s">
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="17"/>
+      <c r="J36" s="19"/>
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>14</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16" t="s">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16" t="s">
+      <c r="E37" s="18"/>
+      <c r="F37" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17" t="s">
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="17"/>
+      <c r="J37" s="19"/>
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>15</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16" t="s">
+      <c r="C38" s="18"/>
+      <c r="D38" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17" t="s">
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="17"/>
+      <c r="J38" s="19"/>
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>16</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16" t="s">
+      <c r="C39" s="18"/>
+      <c r="D39" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16" t="s">
+      <c r="E39" s="18"/>
+      <c r="F39" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="17" t="s">
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="17"/>
+      <c r="J39" s="19"/>
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>17</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16" t="s">
+      <c r="C40" s="18"/>
+      <c r="D40" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16" t="s">
+      <c r="E40" s="18"/>
+      <c r="F40" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17" t="s">
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="17"/>
+      <c r="J40" s="19"/>
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>18</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16" t="s">
+      <c r="B41" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="17" t="s">
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="17"/>
+      <c r="J41" s="19"/>
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>19</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16" t="s">
+      <c r="B42" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17" t="s">
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="17"/>
+      <c r="J42" s="19"/>
       <c r="K42" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="118">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="F22:H23"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:E40"/>
@@ -2180,170 +2186,76 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="F22:H23"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>NOT(ISERROR(SEARCH("Fail",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:I26 I30:I37 I42">
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I41)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/conduit_T-07_uj adat bevitel_KRF.xlsx
+++ b/docs/conduit_T-07_uj adat bevitel_KRF.xlsx
@@ -616,24 +616,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -647,29 +665,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1244,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D42" sqref="D42:E42"/>
     </sheetView>
   </sheetViews>
@@ -1263,59 +1263,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="32" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1331,25 +1331,25 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33">
+      <c r="E5" s="21"/>
+      <c r="F5" s="22">
         <v>44421</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="32" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1367,122 +1367,122 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="F7" s="30" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="F7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="I7" s="30" t="s">
+      <c r="G7" s="24"/>
+      <c r="I7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="30"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="G8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="I10" s="30" t="s">
+      <c r="G10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="30"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>5</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>6</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>7</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
@@ -1493,11 +1493,11 @@
       <c r="F15" s="9">
         <v>1</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="15" t="s">
         <v>65</v>
       </c>
@@ -1511,11 +1511,11 @@
       <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="15" t="s">
         <v>66</v>
       </c>
@@ -1529,11 +1529,11 @@
       <c r="F17" s="9">
         <v>3</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="15" t="s">
         <v>67</v>
       </c>
@@ -1547,11 +1547,11 @@
       <c r="F18" s="9">
         <v>4</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="15" t="s">
         <v>65</v>
       </c>
@@ -1563,9 +1563,9 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1581,51 +1581,51 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
     </row>
     <row r="22" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="27" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="29" t="s">
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="23" t="s">
+      <c r="J22" s="23"/>
+      <c r="K22" s="29" t="s">
         <v>16</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="23"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="29"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
@@ -1633,535 +1633,441 @@
       <c r="A24" s="11">
         <v>1</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19" t="s">
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="19"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>2</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19" t="s">
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="19"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>3</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19" t="s">
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="19"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>4</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19" t="s">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="19"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>5</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19" t="s">
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="19"/>
+      <c r="J28" s="17"/>
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>6</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18" t="s">
+      <c r="E29" s="16"/>
+      <c r="F29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19" t="s">
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="19"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>7</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18" t="s">
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19" t="s">
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="19"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>8</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="16"/>
+      <c r="D31" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18" t="s">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19" t="s">
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="19"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>9</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="16"/>
+      <c r="D32" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19" t="s">
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="19"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>10</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19" t="s">
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="19"/>
+      <c r="J33" s="17"/>
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>11</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18" t="s">
+      <c r="C34" s="16"/>
+      <c r="D34" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19" t="s">
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="19"/>
+      <c r="J34" s="17"/>
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>12</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18" t="s">
+      <c r="C35" s="16"/>
+      <c r="D35" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18" t="s">
+      <c r="E35" s="16"/>
+      <c r="F35" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19" t="s">
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="19"/>
+      <c r="J35" s="17"/>
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>13</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18" t="s">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18" t="s">
+      <c r="E36" s="16"/>
+      <c r="F36" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="19" t="s">
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="19"/>
+      <c r="J36" s="17"/>
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>14</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18" t="s">
+      <c r="C37" s="16"/>
+      <c r="D37" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18" t="s">
+      <c r="E37" s="16"/>
+      <c r="F37" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19" t="s">
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="19"/>
+      <c r="J37" s="17"/>
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>15</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18" t="s">
+      <c r="C38" s="16"/>
+      <c r="D38" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18" t="s">
+      <c r="E38" s="16"/>
+      <c r="F38" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="19" t="s">
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="19"/>
+      <c r="J38" s="17"/>
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>16</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18" t="s">
+      <c r="C39" s="16"/>
+      <c r="D39" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18" t="s">
+      <c r="E39" s="16"/>
+      <c r="F39" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="19" t="s">
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="19"/>
+      <c r="J39" s="17"/>
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>17</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18" t="s">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18" t="s">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="19" t="s">
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="19"/>
+      <c r="J40" s="17"/>
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>18</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18" t="s">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18" t="s">
+      <c r="E41" s="16"/>
+      <c r="F41" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19" t="s">
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="19"/>
+      <c r="J41" s="17"/>
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>19</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18" t="s">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18" t="s">
+      <c r="E42" s="16"/>
+      <c r="F42" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="19" t="s">
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="19"/>
+      <c r="J42" s="17"/>
       <c r="K42" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="F22:H23"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:E40"/>
@@ -2186,6 +2092,100 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="F22:H23"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="expression" dxfId="17" priority="10">
